--- a/Data/data_from_chapter_5.xlsx
+++ b/Data/data_from_chapter_5.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27406"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="5602" documentId="11_BFFF65BEF5027B9832E0B0D0887FD0D4DA8295B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFF0670F-DF05-4154-8577-32206F593493}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24ABB46E-871D-4791-B905-D6FCF39191B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="19" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="268">
   <si>
     <t>This is the data from the file Dr Sansalone gave us titled "Chapter 5.pdf". This file was on a filter treatment system for the Rietz Union parking lot. It contains helpful data on the sediment loads and chemical loads of the runoff from the Rietz Union parking lot.</t>
   </si>
@@ -201,10 +201,28 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Cl (-)</t>
-  </si>
-  <si>
-    <t>NH3 - N</t>
+    <t>Alkalinity (CaCO3) [mg/L]</t>
+  </si>
+  <si>
+    <t>pH [s.u.]</t>
+  </si>
+  <si>
+    <t>Redox [mV]</t>
+  </si>
+  <si>
+    <t>DO [mg/L]</t>
+  </si>
+  <si>
+    <t>Temperature [C]</t>
+  </si>
+  <si>
+    <t>Conductivity [uS/cm]</t>
+  </si>
+  <si>
+    <t>Salinity [ppt]</t>
+  </si>
+  <si>
+    <t>TDS [mg/L]</t>
   </si>
   <si>
     <t>Max pH</t>
@@ -261,6 +279,24 @@
     <t>Min Salinity</t>
   </si>
   <si>
+    <t>Max TDS</t>
+  </si>
+  <si>
+    <t>Avg TDS</t>
+  </si>
+  <si>
+    <t>Min TDS</t>
+  </si>
+  <si>
+    <t>Max Alkalinity</t>
+  </si>
+  <si>
+    <t>Avg Alkalinity</t>
+  </si>
+  <si>
+    <t>Min Alkalinity</t>
+  </si>
+  <si>
     <t>[s.u.]</t>
   </si>
   <si>
@@ -270,6 +306,9 @@
     <t>[μS/cm]</t>
   </si>
   <si>
+    <t>as CaCO3 [mg/L]</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
@@ -316,24 +355,6 @@
   </si>
   <si>
     <t>Min DOC</t>
-  </si>
-  <si>
-    <t>Max TDS</t>
-  </si>
-  <si>
-    <t>Avg TDS</t>
-  </si>
-  <si>
-    <t>Min TDS</t>
-  </si>
-  <si>
-    <t>Max Alkalinity</t>
-  </si>
-  <si>
-    <t>Avg Alkalinity</t>
-  </si>
-  <si>
-    <t>Min Alkalinity</t>
   </si>
   <si>
     <t>[C]</t>
@@ -1175,7 +1196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -1270,56 +1291,49 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1676,227 +1690,227 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1939,49 +1953,49 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2025,13 +2039,13 @@
         <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2807,49 +2821,49 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2893,13 +2907,13 @@
         <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3675,58 +3689,58 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -3734,58 +3748,58 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="Q2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="R2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="S2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4710,49 +4724,49 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -5587,49 +5601,49 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -6460,40 +6474,40 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6501,22 +6515,22 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7159,80 +7173,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="32.25">
-      <c r="A1" s="35" t="s">
-        <v>145</v>
+      <c r="A1" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q1" s="29" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="S1" s="29" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="U1" s="29" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="V1" s="29" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="W1" s="30" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="X1" s="30" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Y1" s="30" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -8315,7 +8329,7 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="53"/>
+      <c r="A17" s="50"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -8340,7 +8354,7 @@
       <c r="X17"/>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="53"/>
+      <c r="A18" s="50"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -8365,7 +8379,7 @@
       <c r="X18"/>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="54"/>
+      <c r="A19" s="51"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -8414,80 +8428,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="32.25">
-      <c r="A1" s="35" t="s">
-        <v>145</v>
+      <c r="A1" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q1" s="29" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="S1" s="29" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="U1" s="29" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="V1" s="29" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="W1" s="30" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="X1" s="30" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Y1" s="30" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -9601,681 +9615,681 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75">
-      <c r="A1" s="54"/>
-      <c r="B1" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>175</v>
+      <c r="A1" s="51"/>
+      <c r="B1" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30.75">
-      <c r="A2" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="L2" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" s="56" t="s">
-        <v>144</v>
+      <c r="A2" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="53" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="57">
+      <c r="A3" s="54">
         <v>39527</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="53" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="54"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="57">
+      <c r="A4" s="54">
         <v>39584</v>
       </c>
       <c r="B4" s="28">
         <v>0.8</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="50">
         <v>0.59</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="50">
         <v>0.03</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="50">
         <v>0.88</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="50">
         <v>0.63</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="50">
         <v>0.17</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="50">
         <v>6081</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="50">
         <v>2649</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="50">
         <v>442</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="50">
         <v>238432</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="50">
         <v>40545</v>
       </c>
-      <c r="M4" s="53">
+      <c r="M4" s="50">
         <v>2473</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="57">
+      <c r="A5" s="54">
         <v>39602</v>
       </c>
       <c r="B5" s="28">
         <v>0.86</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="50">
         <v>0.62</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="50">
         <v>0.18</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="50">
         <v>0.94</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="50">
         <v>0.86</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="50">
         <v>0.74</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="50">
         <v>16075</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="50">
         <v>5986</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="50">
         <v>783</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="50">
         <v>16929</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="50">
         <v>8309</v>
       </c>
-      <c r="M5" s="53">
+      <c r="M5" s="50">
         <v>2774</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="57">
+      <c r="A6" s="54">
         <v>39609</v>
       </c>
       <c r="B6" s="28">
         <v>0.86</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="50">
         <v>0.61</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="50">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="50">
         <v>0.95</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="50">
         <v>0.79</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="50">
         <v>0.53</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="50">
         <v>49136</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="50">
         <v>8499</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="50">
         <v>922</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="50">
         <v>58026</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="50">
         <v>18007</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="50">
         <v>1736</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="57">
+      <c r="A7" s="54">
         <v>39620</v>
       </c>
       <c r="B7" s="28">
         <v>0.94</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="50">
         <v>0.78</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="50">
         <v>0.6</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="50">
         <v>0.92</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="50">
         <v>0.84</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="50">
         <v>0.77</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="50">
         <v>13267</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="50">
         <v>5949</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="50">
         <v>1863</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="50">
         <v>31758</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="50">
         <v>16132</v>
       </c>
-      <c r="M7" s="53">
+      <c r="M7" s="50">
         <v>4352</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="57">
+      <c r="A8" s="54">
         <v>39637</v>
       </c>
       <c r="B8" s="28">
         <v>0.98</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="50">
         <v>0.7</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="50">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="50">
         <v>0.95</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="50">
         <v>0.49</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="50">
         <v>0.12</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="50">
         <v>169741</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="50">
         <v>27959</v>
       </c>
-      <c r="J8" s="53">
+      <c r="J8" s="50">
         <v>130</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="50">
         <v>1067652</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="50">
         <v>245035</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="50">
         <v>4334</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="57">
+      <c r="A9" s="54">
         <v>39644</v>
       </c>
       <c r="B9" s="28">
         <v>0.88</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="50">
         <v>0.68</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="50">
         <v>0.19</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="50">
         <v>0.83</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="50">
         <v>0.47</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="50">
         <v>0.22</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="50">
         <v>712830</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="50">
         <v>56967</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="50">
         <v>1459</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="50">
         <v>641361</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="50">
         <v>216575</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="50">
         <v>21113</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="57">
+      <c r="A10" s="54">
         <v>39658</v>
       </c>
       <c r="B10" s="28">
         <v>0.76</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="50">
         <v>0.54</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="50">
         <v>0.36</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="50">
         <v>0.94</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="50">
         <v>0.72</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="50">
         <v>0.43</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="50">
         <v>26303</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="50">
         <v>11823</v>
       </c>
-      <c r="J10" s="53">
+      <c r="J10" s="50">
         <v>3070</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="50">
         <v>66217</v>
       </c>
-      <c r="L10" s="53">
+      <c r="L10" s="50">
         <v>31158</v>
       </c>
-      <c r="M10" s="53">
+      <c r="M10" s="50">
         <v>4706</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="58">
+      <c r="A11" s="55">
         <v>39668</v>
       </c>
       <c r="B11" s="28">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="50">
         <v>0.42</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="50">
         <v>0.33</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="50">
         <v>0.97</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="50">
         <v>0.82</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="50">
         <v>0.74</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="50">
         <v>42068</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="50">
         <v>15762</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="50">
         <v>1862</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="50">
         <v>88485</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="50">
         <v>22878</v>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="50">
         <v>3634</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="58">
+      <c r="A12" s="55">
         <v>39672</v>
       </c>
       <c r="B12" s="28">
         <v>0.87</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="50">
         <v>0.51</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="50">
         <v>0.21</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="50">
         <v>0.89</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="50">
         <v>0.73</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="50">
         <v>0.49</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="50">
         <v>48369</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="50">
         <v>16096</v>
       </c>
-      <c r="J12" s="53">
+      <c r="J12" s="50">
         <v>1347</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="50">
         <v>118023</v>
       </c>
-      <c r="L12" s="53">
+      <c r="L12" s="50">
         <v>38854</v>
       </c>
-      <c r="M12" s="53">
+      <c r="M12" s="50">
         <v>12878</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="58">
+      <c r="A13" s="55">
         <v>39679</v>
       </c>
       <c r="B13" s="28">
         <v>0.9</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="50">
         <v>0.6</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="50">
         <v>0.4</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="50">
         <v>0.94</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="50">
         <v>0.85</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="50">
         <v>0.63</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="50">
         <v>6441</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="50">
         <v>4107</v>
       </c>
-      <c r="J13" s="53">
+      <c r="J13" s="50">
         <v>1387</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="50">
         <v>49217</v>
       </c>
-      <c r="L13" s="53">
+      <c r="L13" s="50">
         <v>11497</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="50">
         <v>1925</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="58">
+      <c r="A14" s="55">
         <v>39701</v>
       </c>
       <c r="B14" s="28">
         <v>0.88</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="50">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="50">
         <v>0.35</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="50">
         <v>0.95</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="50">
         <v>0.8</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="50">
         <v>0.64</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="50">
         <v>69455</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="50">
         <v>12122</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="50">
         <v>3235</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="50">
         <v>54756</v>
       </c>
-      <c r="L14" s="53">
+      <c r="L14" s="50">
         <v>17753</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="50">
         <v>2605</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="58">
+      <c r="A15" s="55">
         <v>39711</v>
       </c>
       <c r="B15" s="28">
         <v>0.71</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="50">
         <v>0.51</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="50">
         <v>0.41</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="50">
         <v>0.49</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="50">
         <v>0.39</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="50">
         <v>0.33</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="50">
         <v>43929</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="50">
         <v>17175</v>
       </c>
-      <c r="J15" s="53">
+      <c r="J15" s="50">
         <v>1962</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="50">
         <v>160060</v>
       </c>
-      <c r="L15" s="53">
+      <c r="L15" s="50">
         <v>80577</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="50">
         <v>36370</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="58">
+      <c r="A16" s="55">
         <v>39729</v>
       </c>
       <c r="B16" s="28">
         <v>0.71</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="50">
         <v>0.35</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="50">
         <v>0.16</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="50">
         <v>0.78</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="50">
         <v>0.39</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="50">
         <v>0.24</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="50">
         <v>128927</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="50">
         <v>32524</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="50">
         <v>5838</v>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="50">
         <v>323000</v>
       </c>
-      <c r="L16" s="53">
+      <c r="L16" s="50">
         <v>129569</v>
       </c>
-      <c r="M16" s="53">
+      <c r="M16" s="50">
         <v>12518</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="58">
+      <c r="A17" s="55">
         <v>39744</v>
       </c>
       <c r="B17" s="28">
         <v>0.86</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="50">
         <v>0.74</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="50">
         <v>0.6</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="50">
         <v>0.94</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="50">
         <v>0.67</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="50">
         <v>0.31</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="50">
         <v>7872</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="50">
         <v>2862</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="50">
         <v>593</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="50">
         <v>39586</v>
       </c>
-      <c r="L17" s="53">
+      <c r="L17" s="50">
         <v>15960</v>
       </c>
-      <c r="M17" s="53">
+      <c r="M17" s="50">
         <v>974</v>
       </c>
     </row>
@@ -10301,61 +10315,61 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30.75">
       <c r="A1" s="13" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -10423,7 +10437,7 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="19">
@@ -12077,7 +12091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3584D0E-4A6D-43F7-8EFE-B4D90DDDA7D3}">
   <dimension ref="A1:AF44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -12101,1006 +12115,1006 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="9" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="39" t="s">
+      <c r="A1" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q1" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="S2" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF2" s="6"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="43">
+        <v>39527</v>
+      </c>
+      <c r="B3" s="11">
+        <v>11171</v>
+      </c>
+      <c r="C3">
+        <v>6043</v>
+      </c>
+      <c r="D3">
+        <v>1351</v>
+      </c>
+      <c r="E3" s="44">
+        <v>10340</v>
+      </c>
+      <c r="F3">
+        <v>4377</v>
+      </c>
+      <c r="G3">
+        <v>1031</v>
+      </c>
+      <c r="H3" s="44">
+        <v>40893</v>
+      </c>
+      <c r="I3">
+        <v>19513</v>
+      </c>
+      <c r="J3" s="45">
+        <v>7034</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="44">
+        <v>266</v>
+      </c>
+      <c r="O3">
+        <v>121</v>
+      </c>
+      <c r="P3">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="44">
+        <v>24</v>
+      </c>
+      <c r="R3">
+        <v>21</v>
+      </c>
+      <c r="S3" s="45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="43">
+        <v>39584</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="48">
+        <v>40647</v>
+      </c>
+      <c r="F4">
+        <v>3188</v>
+      </c>
+      <c r="G4">
+        <v>1014</v>
+      </c>
+      <c r="H4" s="44">
+        <v>179164</v>
+      </c>
+      <c r="I4">
+        <v>20242</v>
+      </c>
+      <c r="J4" s="45">
+        <v>8238</v>
+      </c>
+      <c r="K4">
+        <v>31</v>
+      </c>
+      <c r="L4">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4" s="44">
+        <v>83</v>
+      </c>
+      <c r="O4">
+        <v>31</v>
+      </c>
+      <c r="P4">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="44">
+        <v>28</v>
+      </c>
+      <c r="R4">
+        <v>18</v>
+      </c>
+      <c r="S4" s="45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="43">
+        <v>39602</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C5">
+        <v>1700</v>
+      </c>
+      <c r="D5">
+        <v>1270</v>
+      </c>
+      <c r="E5" s="44">
+        <v>13817</v>
+      </c>
+      <c r="F5">
+        <v>7911</v>
+      </c>
+      <c r="G5">
+        <v>4866</v>
+      </c>
+      <c r="H5" s="44">
+        <v>87034</v>
+      </c>
+      <c r="I5">
+        <v>53805</v>
+      </c>
+      <c r="J5" s="45">
+        <v>35026</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5" s="44">
+        <v>68</v>
+      </c>
+      <c r="O5">
+        <v>53</v>
+      </c>
+      <c r="P5">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="43">
+        <v>39609</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1610</v>
+      </c>
+      <c r="C6">
+        <v>445</v>
+      </c>
+      <c r="D6">
+        <v>164</v>
+      </c>
+      <c r="E6" s="44">
+        <v>11622</v>
+      </c>
+      <c r="F6">
+        <v>3327</v>
+      </c>
+      <c r="G6">
+        <v>859</v>
+      </c>
+      <c r="H6" s="44">
+        <v>77200</v>
+      </c>
+      <c r="I6">
+        <v>9096</v>
+      </c>
+      <c r="J6" s="45">
+        <v>5129</v>
+      </c>
+      <c r="K6">
+        <v>39</v>
+      </c>
+      <c r="L6">
+        <v>17</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6" s="44">
+        <v>60</v>
+      </c>
+      <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>36</v>
+      </c>
+      <c r="R6">
+        <v>23</v>
+      </c>
+      <c r="S6" s="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="43">
+        <v>39620</v>
+      </c>
+      <c r="B7" s="11">
+        <v>986</v>
+      </c>
+      <c r="C7">
+        <v>544</v>
+      </c>
+      <c r="D7">
+        <v>357</v>
+      </c>
+      <c r="E7" s="44">
+        <v>5280</v>
+      </c>
+      <c r="F7">
+        <v>779</v>
+      </c>
+      <c r="G7">
+        <v>255</v>
+      </c>
+      <c r="H7" s="44">
+        <v>99127</v>
+      </c>
+      <c r="I7">
+        <v>29188</v>
+      </c>
+      <c r="J7" s="45">
+        <v>7971</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="44">
+        <v>35</v>
+      </c>
+      <c r="O7">
+        <v>21</v>
+      </c>
+      <c r="P7">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>27</v>
+      </c>
+      <c r="R7">
+        <v>20</v>
+      </c>
+      <c r="S7" s="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="43">
+        <v>39637</v>
+      </c>
+      <c r="B8" s="11">
+        <v>7665</v>
+      </c>
+      <c r="C8">
+        <v>2608</v>
+      </c>
+      <c r="D8">
+        <v>323</v>
+      </c>
+      <c r="E8" s="44">
+        <v>3390</v>
+      </c>
+      <c r="F8">
+        <v>313</v>
+      </c>
+      <c r="G8">
+        <v>34</v>
+      </c>
+      <c r="H8" s="44">
+        <v>42919</v>
+      </c>
+      <c r="I8">
+        <v>6970</v>
+      </c>
+      <c r="J8" s="45">
+        <v>2609</v>
+      </c>
+      <c r="K8">
+        <v>28</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" s="44">
+        <v>101</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>30</v>
+      </c>
+      <c r="R8">
+        <v>17</v>
+      </c>
+      <c r="S8" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="43">
+        <v>39644</v>
+      </c>
+      <c r="B9" s="11">
+        <v>12400</v>
+      </c>
+      <c r="C9">
+        <v>2630</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="E9" s="44">
+        <v>7038</v>
+      </c>
+      <c r="F9">
+        <v>727</v>
+      </c>
+      <c r="G9">
+        <v>347</v>
+      </c>
+      <c r="H9" s="44">
+        <v>48863</v>
+      </c>
+      <c r="I9">
+        <v>5818</v>
+      </c>
+      <c r="J9" s="45">
+        <v>2851</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="44">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>45</v>
+      </c>
+      <c r="P9">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="44">
+        <v>29</v>
+      </c>
+      <c r="R9">
+        <v>16</v>
+      </c>
+      <c r="S9" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="43">
+        <v>39658</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1525</v>
+      </c>
+      <c r="C10">
+        <v>1036</v>
+      </c>
+      <c r="D10">
+        <v>483</v>
+      </c>
+      <c r="E10" s="44">
+        <v>8960</v>
+      </c>
+      <c r="F10">
+        <v>2740</v>
+      </c>
+      <c r="G10">
+        <v>1125</v>
+      </c>
+      <c r="H10" s="44">
+        <v>54836</v>
+      </c>
+      <c r="I10">
+        <v>19064</v>
+      </c>
+      <c r="J10" s="45">
+        <v>8183</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10" s="44">
+        <v>179</v>
+      </c>
+      <c r="O10">
+        <v>80</v>
+      </c>
+      <c r="P10">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="44">
+        <v>138</v>
+      </c>
+      <c r="R10">
+        <v>106</v>
+      </c>
+      <c r="S10" s="45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="43">
+        <v>39668</v>
+      </c>
+      <c r="B11" s="11">
+        <v>3900</v>
+      </c>
+      <c r="C11">
+        <v>1395</v>
+      </c>
+      <c r="D11">
+        <v>77</v>
+      </c>
+      <c r="E11" s="44">
+        <v>14993</v>
+      </c>
+      <c r="F11">
+        <v>8082</v>
+      </c>
+      <c r="G11">
+        <v>3891</v>
+      </c>
+      <c r="H11" s="44">
+        <v>82845</v>
+      </c>
+      <c r="I11">
+        <v>51045</v>
+      </c>
+      <c r="J11" s="45">
+        <v>30980</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>14</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11" s="44">
         <v>200</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="S1" s="40" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="L2" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="M2" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="N2" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="O2" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="P2" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q2" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="R2" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="S2" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF2" s="6"/>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="45">
-        <v>39527</v>
-      </c>
-      <c r="B3" s="46">
-        <v>11171</v>
-      </c>
-      <c r="C3" s="47">
-        <v>6043</v>
-      </c>
-      <c r="D3" s="47">
-        <v>1351</v>
-      </c>
-      <c r="E3" s="48">
-        <v>10340</v>
-      </c>
-      <c r="F3" s="47">
-        <v>4377</v>
-      </c>
-      <c r="G3" s="47">
-        <v>1031</v>
-      </c>
-      <c r="H3" s="48">
-        <v>40893</v>
-      </c>
-      <c r="I3" s="47">
-        <v>19513</v>
-      </c>
-      <c r="J3" s="49">
-        <v>7034</v>
-      </c>
-      <c r="K3" s="47">
+      <c r="O11">
+        <v>130</v>
+      </c>
+      <c r="P11">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="44">
+        <v>115</v>
+      </c>
+      <c r="R11">
+        <v>104</v>
+      </c>
+      <c r="S11" s="45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="43">
+        <v>39672</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1910</v>
+      </c>
+      <c r="C12">
+        <v>500</v>
+      </c>
+      <c r="D12">
+        <v>258</v>
+      </c>
+      <c r="E12" s="44">
+        <v>9679</v>
+      </c>
+      <c r="F12">
+        <v>1179</v>
+      </c>
+      <c r="G12">
+        <v>33</v>
+      </c>
+      <c r="H12" s="44">
+        <v>57842</v>
+      </c>
+      <c r="I12">
+        <v>8278</v>
+      </c>
+      <c r="J12" s="45">
+        <v>369</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="L3" s="47">
-        <v>2</v>
-      </c>
-      <c r="M3" s="47">
-        <v>0</v>
-      </c>
-      <c r="N3" s="48">
-        <v>266</v>
-      </c>
-      <c r="O3" s="47">
-        <v>121</v>
-      </c>
-      <c r="P3" s="47">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="48">
+      <c r="N12" s="44">
+        <v>118</v>
+      </c>
+      <c r="O12">
+        <v>38</v>
+      </c>
+      <c r="P12">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="44">
+        <v>36</v>
+      </c>
+      <c r="R12">
         <v>24</v>
       </c>
-      <c r="R3" s="47">
-        <v>21</v>
-      </c>
-      <c r="S3" s="49">
+      <c r="S12" s="45">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="45">
-        <v>39584</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="52">
-        <v>40647</v>
-      </c>
-      <c r="F4" s="47">
-        <v>3188</v>
-      </c>
-      <c r="G4" s="47">
-        <v>1014</v>
-      </c>
-      <c r="H4" s="48">
-        <v>179164</v>
-      </c>
-      <c r="I4" s="47">
-        <v>20242</v>
-      </c>
-      <c r="J4" s="49">
-        <v>8238</v>
-      </c>
-      <c r="K4" s="47">
+    <row r="13" spans="1:32">
+      <c r="A13" s="43">
+        <v>39679</v>
+      </c>
+      <c r="B13" s="11">
+        <v>4025</v>
+      </c>
+      <c r="C13">
+        <v>2587</v>
+      </c>
+      <c r="D13">
+        <v>2140</v>
+      </c>
+      <c r="E13" s="44">
+        <v>10066</v>
+      </c>
+      <c r="F13">
+        <v>3427</v>
+      </c>
+      <c r="G13">
+        <v>815</v>
+      </c>
+      <c r="H13" s="44">
+        <v>65537</v>
+      </c>
+      <c r="I13">
+        <v>24773</v>
+      </c>
+      <c r="J13" s="45">
+        <v>7894</v>
+      </c>
+      <c r="K13">
+        <v>40</v>
+      </c>
+      <c r="L13">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <v>13</v>
+      </c>
+      <c r="N13" s="44">
+        <v>125</v>
+      </c>
+      <c r="O13">
+        <v>62</v>
+      </c>
+      <c r="P13">
         <v>31</v>
       </c>
-      <c r="L4" s="47">
+      <c r="Q13" s="44">
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="43">
+        <v>39701</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2860</v>
+      </c>
+      <c r="C14">
+        <v>1565</v>
+      </c>
+      <c r="D14">
+        <v>714</v>
+      </c>
+      <c r="E14" s="44">
+        <v>14972</v>
+      </c>
+      <c r="F14">
+        <v>3257</v>
+      </c>
+      <c r="G14">
+        <v>2094</v>
+      </c>
+      <c r="H14" s="44">
+        <v>96844</v>
+      </c>
+      <c r="I14">
+        <v>25927</v>
+      </c>
+      <c r="J14" s="45">
+        <v>18696</v>
+      </c>
+      <c r="K14">
+        <v>41</v>
+      </c>
+      <c r="L14">
+        <v>31</v>
+      </c>
+      <c r="M14">
         <v>16</v>
       </c>
-      <c r="M4" s="47">
-        <v>9</v>
-      </c>
-      <c r="N4" s="48">
+      <c r="N14" s="44">
+        <v>91</v>
+      </c>
+      <c r="O14">
+        <v>54</v>
+      </c>
+      <c r="P14">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="44">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="43">
+        <v>39711</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1835</v>
+      </c>
+      <c r="C15">
+        <v>1358</v>
+      </c>
+      <c r="D15">
+        <v>881</v>
+      </c>
+      <c r="E15" s="44">
+        <v>16315</v>
+      </c>
+      <c r="F15">
+        <v>5619</v>
+      </c>
+      <c r="G15">
+        <v>2382</v>
+      </c>
+      <c r="H15" s="44">
+        <v>110208</v>
+      </c>
+      <c r="I15">
+        <v>44216</v>
+      </c>
+      <c r="J15" s="45">
+        <v>21534</v>
+      </c>
+      <c r="K15">
+        <v>57</v>
+      </c>
+      <c r="L15">
+        <v>39</v>
+      </c>
+      <c r="M15">
+        <v>28</v>
+      </c>
+      <c r="N15" s="44">
+        <v>120</v>
+      </c>
+      <c r="O15">
+        <v>80</v>
+      </c>
+      <c r="P15">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="44">
+        <v>59</v>
+      </c>
+      <c r="R15">
+        <v>31</v>
+      </c>
+      <c r="S15" s="45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="43">
+        <v>39729</v>
+      </c>
+      <c r="B16" s="11">
+        <v>5475</v>
+      </c>
+      <c r="C16">
+        <v>2016</v>
+      </c>
+      <c r="D16">
+        <v>610</v>
+      </c>
+      <c r="E16" s="44">
+        <v>12534</v>
+      </c>
+      <c r="F16">
+        <v>3773</v>
+      </c>
+      <c r="G16">
+        <v>1458</v>
+      </c>
+      <c r="H16" s="44">
+        <v>93172</v>
+      </c>
+      <c r="I16">
+        <v>30380</v>
+      </c>
+      <c r="J16" s="45">
+        <v>11286</v>
+      </c>
+      <c r="K16">
+        <v>45</v>
+      </c>
+      <c r="L16">
+        <v>29</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16" s="44">
+        <v>157</v>
+      </c>
+      <c r="O16">
         <v>83</v>
       </c>
-      <c r="O4" s="47">
-        <v>31</v>
-      </c>
-      <c r="P4" s="47">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="48">
-        <v>28</v>
-      </c>
-      <c r="R4" s="47">
+      <c r="P16">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="44">
+        <v>58</v>
+      </c>
+      <c r="R16">
+        <v>48</v>
+      </c>
+      <c r="S16" s="45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="43">
+        <v>39744</v>
+      </c>
+      <c r="B17" s="11">
+        <v>29700</v>
+      </c>
+      <c r="C17">
+        <v>9423</v>
+      </c>
+      <c r="D17">
+        <v>897</v>
+      </c>
+      <c r="E17" s="44">
+        <v>11801</v>
+      </c>
+      <c r="F17">
+        <v>4385</v>
+      </c>
+      <c r="G17">
+        <v>2062</v>
+      </c>
+      <c r="H17" s="44">
+        <v>78870</v>
+      </c>
+      <c r="I17">
+        <v>32906</v>
+      </c>
+      <c r="J17" s="45">
+        <v>15122</v>
+      </c>
+      <c r="K17">
+        <v>24</v>
+      </c>
+      <c r="L17">
         <v>18</v>
       </c>
-      <c r="S4" s="49">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="A5" s="45">
-        <v>39602</v>
-      </c>
-      <c r="B5" s="46">
-        <v>2025</v>
-      </c>
-      <c r="C5" s="47">
-        <v>1700</v>
-      </c>
-      <c r="D5" s="47">
-        <v>1270</v>
-      </c>
-      <c r="E5" s="48">
-        <v>13817</v>
-      </c>
-      <c r="F5" s="47">
-        <v>7911</v>
-      </c>
-      <c r="G5" s="47">
-        <v>4866</v>
-      </c>
-      <c r="H5" s="48">
-        <v>87034</v>
-      </c>
-      <c r="I5" s="47">
-        <v>53805</v>
-      </c>
-      <c r="J5" s="49">
-        <v>35026</v>
-      </c>
-      <c r="K5" s="47">
-        <v>11</v>
-      </c>
-      <c r="L5" s="47">
-        <v>9</v>
-      </c>
-      <c r="M5" s="47">
+      <c r="M17">
+        <v>8</v>
+      </c>
+      <c r="N17" s="44">
+        <v>89</v>
+      </c>
+      <c r="O17">
+        <v>58</v>
+      </c>
+      <c r="P17">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="44">
         <v>6</v>
       </c>
-      <c r="N5" s="48">
-        <v>68</v>
-      </c>
-      <c r="O5" s="47">
-        <v>53</v>
-      </c>
-      <c r="P5" s="47">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="48">
-        <v>14</v>
-      </c>
-      <c r="R5" s="47">
-        <v>10</v>
-      </c>
-      <c r="S5" s="49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
-      <c r="A6" s="45">
-        <v>39609</v>
-      </c>
-      <c r="B6" s="46">
-        <v>1610</v>
-      </c>
-      <c r="C6" s="47">
-        <v>445</v>
-      </c>
-      <c r="D6" s="47">
-        <v>164</v>
-      </c>
-      <c r="E6" s="48">
-        <v>11622</v>
-      </c>
-      <c r="F6" s="47">
-        <v>3327</v>
-      </c>
-      <c r="G6" s="47">
-        <v>859</v>
-      </c>
-      <c r="H6" s="48">
-        <v>77200</v>
-      </c>
-      <c r="I6" s="47">
-        <v>9096</v>
-      </c>
-      <c r="J6" s="49">
-        <v>5129</v>
-      </c>
-      <c r="K6" s="47">
-        <v>39</v>
-      </c>
-      <c r="L6" s="47">
-        <v>17</v>
-      </c>
-      <c r="M6" s="47">
-        <v>9</v>
-      </c>
-      <c r="N6" s="48">
-        <v>60</v>
-      </c>
-      <c r="O6" s="47">
-        <v>25</v>
-      </c>
-      <c r="P6" s="47">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="48">
-        <v>36</v>
-      </c>
-      <c r="R6" s="47">
-        <v>23</v>
-      </c>
-      <c r="S6" s="49">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="45">
-        <v>39620</v>
-      </c>
-      <c r="B7" s="46">
-        <v>986</v>
-      </c>
-      <c r="C7" s="47">
-        <v>544</v>
-      </c>
-      <c r="D7" s="47">
-        <v>357</v>
-      </c>
-      <c r="E7" s="48">
-        <v>5280</v>
-      </c>
-      <c r="F7" s="47">
-        <v>779</v>
-      </c>
-      <c r="G7" s="47">
-        <v>255</v>
-      </c>
-      <c r="H7" s="48">
-        <v>99127</v>
-      </c>
-      <c r="I7" s="47">
-        <v>29188</v>
-      </c>
-      <c r="J7" s="49">
-        <v>7971</v>
-      </c>
-      <c r="K7" s="47">
-        <v>12</v>
-      </c>
-      <c r="L7" s="47">
-        <v>8</v>
-      </c>
-      <c r="M7" s="47">
-        <v>4</v>
-      </c>
-      <c r="N7" s="48">
-        <v>35</v>
-      </c>
-      <c r="O7" s="47">
-        <v>21</v>
-      </c>
-      <c r="P7" s="47">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="48">
-        <v>27</v>
-      </c>
-      <c r="R7" s="47">
-        <v>20</v>
-      </c>
-      <c r="S7" s="49">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="45">
-        <v>39637</v>
-      </c>
-      <c r="B8" s="46">
-        <v>7665</v>
-      </c>
-      <c r="C8" s="47">
-        <v>2608</v>
-      </c>
-      <c r="D8" s="47">
-        <v>323</v>
-      </c>
-      <c r="E8" s="48">
-        <v>3390</v>
-      </c>
-      <c r="F8" s="47">
-        <v>313</v>
-      </c>
-      <c r="G8" s="47">
-        <v>34</v>
-      </c>
-      <c r="H8" s="48">
-        <v>42919</v>
-      </c>
-      <c r="I8" s="47">
-        <v>6970</v>
-      </c>
-      <c r="J8" s="49">
-        <v>2609</v>
-      </c>
-      <c r="K8" s="47">
-        <v>28</v>
-      </c>
-      <c r="L8" s="47">
-        <v>6</v>
-      </c>
-      <c r="M8" s="47">
-        <v>2</v>
-      </c>
-      <c r="N8" s="48">
-        <v>101</v>
-      </c>
-      <c r="O8" s="47">
-        <v>25</v>
-      </c>
-      <c r="P8" s="47">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="48">
-        <v>30</v>
-      </c>
-      <c r="R8" s="47">
-        <v>17</v>
-      </c>
-      <c r="S8" s="49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
-      <c r="A9" s="45">
-        <v>39644</v>
-      </c>
-      <c r="B9" s="46">
-        <v>12400</v>
-      </c>
-      <c r="C9" s="47">
-        <v>2630</v>
-      </c>
-      <c r="D9" s="47">
-        <v>48</v>
-      </c>
-      <c r="E9" s="48">
-        <v>7038</v>
-      </c>
-      <c r="F9" s="47">
-        <v>727</v>
-      </c>
-      <c r="G9" s="47">
-        <v>347</v>
-      </c>
-      <c r="H9" s="48">
-        <v>48863</v>
-      </c>
-      <c r="I9" s="47">
-        <v>5818</v>
-      </c>
-      <c r="J9" s="49">
-        <v>2851</v>
-      </c>
-      <c r="K9" s="47">
-        <v>8</v>
-      </c>
-      <c r="L9" s="47">
+      <c r="R17">
         <v>3</v>
       </c>
-      <c r="M9" s="47">
-        <v>1</v>
-      </c>
-      <c r="N9" s="48">
-        <v>80</v>
-      </c>
-      <c r="O9" s="47">
-        <v>45</v>
-      </c>
-      <c r="P9" s="47">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="48">
-        <v>29</v>
-      </c>
-      <c r="R9" s="47">
-        <v>16</v>
-      </c>
-      <c r="S9" s="49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="45">
-        <v>39658</v>
-      </c>
-      <c r="B10" s="46">
-        <v>1525</v>
-      </c>
-      <c r="C10" s="47">
-        <v>1036</v>
-      </c>
-      <c r="D10" s="47">
-        <v>483</v>
-      </c>
-      <c r="E10" s="48">
-        <v>8960</v>
-      </c>
-      <c r="F10" s="47">
-        <v>2740</v>
-      </c>
-      <c r="G10" s="47">
-        <v>1125</v>
-      </c>
-      <c r="H10" s="48">
-        <v>54836</v>
-      </c>
-      <c r="I10" s="47">
-        <v>19064</v>
-      </c>
-      <c r="J10" s="49">
-        <v>8183</v>
-      </c>
-      <c r="K10" s="47">
-        <v>25</v>
-      </c>
-      <c r="L10" s="47">
-        <v>15</v>
-      </c>
-      <c r="M10" s="47">
-        <v>8</v>
-      </c>
-      <c r="N10" s="48">
-        <v>179</v>
-      </c>
-      <c r="O10" s="47">
-        <v>80</v>
-      </c>
-      <c r="P10" s="47">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="48">
-        <v>138</v>
-      </c>
-      <c r="R10" s="47">
-        <v>106</v>
-      </c>
-      <c r="S10" s="49">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32">
-      <c r="A11" s="45">
-        <v>39668</v>
-      </c>
-      <c r="B11" s="46">
-        <v>3900</v>
-      </c>
-      <c r="C11" s="47">
-        <v>1395</v>
-      </c>
-      <c r="D11" s="47">
-        <v>77</v>
-      </c>
-      <c r="E11" s="48">
-        <v>14993</v>
-      </c>
-      <c r="F11" s="47">
-        <v>8082</v>
-      </c>
-      <c r="G11" s="47">
-        <v>3891</v>
-      </c>
-      <c r="H11" s="48">
-        <v>82845</v>
-      </c>
-      <c r="I11" s="47">
-        <v>51045</v>
-      </c>
-      <c r="J11" s="49">
-        <v>30980</v>
-      </c>
-      <c r="K11" s="47">
-        <v>20</v>
-      </c>
-      <c r="L11" s="47">
-        <v>14</v>
-      </c>
-      <c r="M11" s="47">
-        <v>5</v>
-      </c>
-      <c r="N11" s="48">
-        <v>200</v>
-      </c>
-      <c r="O11" s="47">
-        <v>130</v>
-      </c>
-      <c r="P11" s="47">
-        <v>51</v>
-      </c>
-      <c r="Q11" s="48">
-        <v>115</v>
-      </c>
-      <c r="R11" s="47">
-        <v>104</v>
-      </c>
-      <c r="S11" s="49">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="45">
-        <v>39672</v>
-      </c>
-      <c r="B12" s="46">
-        <v>1910</v>
-      </c>
-      <c r="C12" s="47">
-        <v>500</v>
-      </c>
-      <c r="D12" s="47">
-        <v>258</v>
-      </c>
-      <c r="E12" s="48">
-        <v>9679</v>
-      </c>
-      <c r="F12" s="47">
-        <v>1179</v>
-      </c>
-      <c r="G12" s="47">
-        <v>33</v>
-      </c>
-      <c r="H12" s="48">
-        <v>57842</v>
-      </c>
-      <c r="I12" s="47">
-        <v>8278</v>
-      </c>
-      <c r="J12" s="49">
-        <v>369</v>
-      </c>
-      <c r="K12" s="47">
-        <v>12</v>
-      </c>
-      <c r="L12" s="47">
-        <v>7</v>
-      </c>
-      <c r="M12" s="47">
-        <v>2</v>
-      </c>
-      <c r="N12" s="48">
-        <v>118</v>
-      </c>
-      <c r="O12" s="47">
-        <v>38</v>
-      </c>
-      <c r="P12" s="47">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="48">
-        <v>36</v>
-      </c>
-      <c r="R12" s="47">
-        <v>24</v>
-      </c>
-      <c r="S12" s="49">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="A13" s="45">
-        <v>39679</v>
-      </c>
-      <c r="B13" s="46">
-        <v>4025</v>
-      </c>
-      <c r="C13" s="47">
-        <v>2587</v>
-      </c>
-      <c r="D13" s="47">
-        <v>2140</v>
-      </c>
-      <c r="E13" s="48">
-        <v>10066</v>
-      </c>
-      <c r="F13" s="47">
-        <v>3427</v>
-      </c>
-      <c r="G13" s="47">
-        <v>815</v>
-      </c>
-      <c r="H13" s="48">
-        <v>65537</v>
-      </c>
-      <c r="I13" s="47">
-        <v>24773</v>
-      </c>
-      <c r="J13" s="49">
-        <v>7894</v>
-      </c>
-      <c r="K13" s="47">
-        <v>40</v>
-      </c>
-      <c r="L13" s="47">
-        <v>16</v>
-      </c>
-      <c r="M13" s="47">
-        <v>13</v>
-      </c>
-      <c r="N13" s="48">
-        <v>125</v>
-      </c>
-      <c r="O13" s="47">
-        <v>62</v>
-      </c>
-      <c r="P13" s="47">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="48">
-        <v>12</v>
-      </c>
-      <c r="R13" s="47">
-        <v>10</v>
-      </c>
-      <c r="S13" s="49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
-      <c r="A14" s="45">
-        <v>39701</v>
-      </c>
-      <c r="B14" s="46">
-        <v>2860</v>
-      </c>
-      <c r="C14" s="47">
-        <v>1565</v>
-      </c>
-      <c r="D14" s="47">
-        <v>714</v>
-      </c>
-      <c r="E14" s="48">
-        <v>14972</v>
-      </c>
-      <c r="F14" s="47">
-        <v>3257</v>
-      </c>
-      <c r="G14" s="47">
-        <v>2094</v>
-      </c>
-      <c r="H14" s="48">
-        <v>96844</v>
-      </c>
-      <c r="I14" s="47">
-        <v>25927</v>
-      </c>
-      <c r="J14" s="49">
-        <v>18696</v>
-      </c>
-      <c r="K14" s="47">
-        <v>41</v>
-      </c>
-      <c r="L14" s="47">
-        <v>31</v>
-      </c>
-      <c r="M14" s="47">
-        <v>16</v>
-      </c>
-      <c r="N14" s="48">
-        <v>91</v>
-      </c>
-      <c r="O14" s="47">
-        <v>54</v>
-      </c>
-      <c r="P14" s="47">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="48">
-        <v>8</v>
-      </c>
-      <c r="R14" s="47">
-        <v>4</v>
-      </c>
-      <c r="S14" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32">
-      <c r="A15" s="45">
-        <v>39711</v>
-      </c>
-      <c r="B15" s="46">
-        <v>1835</v>
-      </c>
-      <c r="C15" s="47">
-        <v>1358</v>
-      </c>
-      <c r="D15" s="47">
-        <v>881</v>
-      </c>
-      <c r="E15" s="48">
-        <v>16315</v>
-      </c>
-      <c r="F15" s="47">
-        <v>5619</v>
-      </c>
-      <c r="G15" s="47">
-        <v>2382</v>
-      </c>
-      <c r="H15" s="48">
-        <v>110208</v>
-      </c>
-      <c r="I15" s="47">
-        <v>44216</v>
-      </c>
-      <c r="J15" s="49">
-        <v>21534</v>
-      </c>
-      <c r="K15" s="47">
-        <v>57</v>
-      </c>
-      <c r="L15" s="47">
-        <v>39</v>
-      </c>
-      <c r="M15" s="47">
-        <v>28</v>
-      </c>
-      <c r="N15" s="48">
-        <v>120</v>
-      </c>
-      <c r="O15" s="47">
-        <v>80</v>
-      </c>
-      <c r="P15" s="47">
-        <v>55</v>
-      </c>
-      <c r="Q15" s="48">
-        <v>59</v>
-      </c>
-      <c r="R15" s="47">
-        <v>31</v>
-      </c>
-      <c r="S15" s="49">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
-      <c r="A16" s="45">
-        <v>39729</v>
-      </c>
-      <c r="B16" s="46">
-        <v>5475</v>
-      </c>
-      <c r="C16" s="47">
-        <v>2016</v>
-      </c>
-      <c r="D16" s="47">
-        <v>610</v>
-      </c>
-      <c r="E16" s="48">
-        <v>12534</v>
-      </c>
-      <c r="F16" s="47">
-        <v>3773</v>
-      </c>
-      <c r="G16" s="47">
-        <v>1458</v>
-      </c>
-      <c r="H16" s="48">
-        <v>93172</v>
-      </c>
-      <c r="I16" s="47">
-        <v>30380</v>
-      </c>
-      <c r="J16" s="49">
-        <v>11286</v>
-      </c>
-      <c r="K16" s="47">
-        <v>45</v>
-      </c>
-      <c r="L16" s="47">
-        <v>29</v>
-      </c>
-      <c r="M16" s="47">
-        <v>14</v>
-      </c>
-      <c r="N16" s="48">
-        <v>157</v>
-      </c>
-      <c r="O16" s="47">
-        <v>83</v>
-      </c>
-      <c r="P16" s="47">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="48">
-        <v>58</v>
-      </c>
-      <c r="R16" s="47">
-        <v>48</v>
-      </c>
-      <c r="S16" s="49">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="45">
-        <v>39744</v>
-      </c>
-      <c r="B17" s="46">
-        <v>29700</v>
-      </c>
-      <c r="C17" s="47">
-        <v>9423</v>
-      </c>
-      <c r="D17" s="47">
-        <v>897</v>
-      </c>
-      <c r="E17" s="48">
-        <v>11801</v>
-      </c>
-      <c r="F17" s="47">
-        <v>4385</v>
-      </c>
-      <c r="G17" s="47">
-        <v>2062</v>
-      </c>
-      <c r="H17" s="48">
-        <v>78870</v>
-      </c>
-      <c r="I17" s="47">
-        <v>32906</v>
-      </c>
-      <c r="J17" s="49">
-        <v>15122</v>
-      </c>
-      <c r="K17" s="47">
-        <v>24</v>
-      </c>
-      <c r="L17" s="47">
-        <v>18</v>
-      </c>
-      <c r="M17" s="47">
-        <v>8</v>
-      </c>
-      <c r="N17" s="48">
-        <v>89</v>
-      </c>
-      <c r="O17" s="47">
-        <v>58</v>
-      </c>
-      <c r="P17" s="47">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="48">
-        <v>6</v>
-      </c>
-      <c r="R17" s="47">
-        <v>3</v>
-      </c>
-      <c r="S17" s="49">
+      <c r="S17" s="45">
         <v>1</v>
       </c>
     </row>
@@ -13180,82 +13194,82 @@
   <sheetData>
     <row r="1" spans="1:26" ht="45.75">
       <c r="A1" s="13" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Z1" s="13" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -14492,95 +14506,95 @@
   <sheetData>
     <row r="1" spans="1:34" ht="48.75">
       <c r="A1" s="21" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="R1" s="22" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="S1" s="22" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="T1" s="22" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="U1" s="22" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="V1" s="22" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="W1" s="22" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="X1" s="22" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Y1" s="22" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Z1" s="22" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AA1" s="22" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AB1" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
+        <v>267</v>
+      </c>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
     </row>
     <row r="2" spans="1:34" ht="15.75">
       <c r="A2" s="23">
@@ -14663,12 +14677,12 @@
       <c r="AB2" s="24">
         <v>7.7</v>
       </c>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
     </row>
     <row r="3" spans="1:34" ht="15.75">
       <c r="A3" s="23">
@@ -14747,12 +14761,12 @@
         <v>42</v>
       </c>
       <c r="AB3" s="24"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
     </row>
     <row r="4" spans="1:34" ht="15.75">
       <c r="A4" s="23">
@@ -14835,12 +14849,12 @@
       <c r="AB4" s="24">
         <v>46.6</v>
       </c>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
     </row>
     <row r="5" spans="1:34" ht="15.75">
       <c r="A5" s="23">
@@ -14923,12 +14937,12 @@
       <c r="AB5" s="24">
         <v>15</v>
       </c>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
     </row>
     <row r="6" spans="1:34" ht="15.75">
       <c r="A6" s="23">
@@ -15011,12 +15025,12 @@
       <c r="AB6" s="24">
         <v>3.5</v>
       </c>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="54"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
     </row>
     <row r="7" spans="1:34" ht="15.75">
       <c r="A7" s="23">
@@ -15099,12 +15113,12 @@
       <c r="AB7" s="24">
         <v>7.7</v>
       </c>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="54"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
     </row>
     <row r="8" spans="1:34" ht="15.75">
       <c r="A8" s="27">
@@ -15187,12 +15201,12 @@
       <c r="AB8" s="24">
         <v>34</v>
       </c>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
     </row>
     <row r="9" spans="1:34" ht="15.75">
       <c r="A9" s="23">
@@ -15275,12 +15289,12 @@
       <c r="AB9" s="24">
         <v>7.8</v>
       </c>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
     </row>
     <row r="10" spans="1:34" ht="15.75">
       <c r="A10" s="23">
@@ -15363,12 +15377,12 @@
       <c r="AB10" s="24">
         <v>11</v>
       </c>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
     </row>
     <row r="11" spans="1:34" ht="15.75">
       <c r="A11" s="27">
@@ -15451,12 +15465,12 @@
       <c r="AB11" s="24">
         <v>5.9</v>
       </c>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="54"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="51"/>
     </row>
     <row r="12" spans="1:34" ht="15.75">
       <c r="A12" s="23">
@@ -15543,12 +15557,12 @@
       <c r="AB12" s="24">
         <v>1.9</v>
       </c>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="54"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
     </row>
     <row r="13" spans="1:34" ht="15.75">
       <c r="A13" s="27">
@@ -15635,12 +15649,12 @@
       <c r="AB13" s="24">
         <v>9</v>
       </c>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="54"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
     </row>
     <row r="14" spans="1:34" ht="15.75">
       <c r="A14" s="23">
@@ -15727,12 +15741,12 @@
       <c r="AB14" s="24">
         <v>11.4</v>
       </c>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="54"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
     </row>
     <row r="15" spans="1:34" ht="15.75">
       <c r="A15" s="27">
@@ -15819,12 +15833,12 @@
       <c r="AB15" s="24">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="54"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
     </row>
     <row r="16" spans="1:34" ht="15.75">
       <c r="A16" s="27">
@@ -15911,156 +15925,156 @@
       <c r="AB16" s="24">
         <v>6.4</v>
       </c>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="54"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54"/>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="54"/>
-      <c r="AH19" s="54"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="54"/>
-      <c r="AH20" s="54"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16538,7 +16552,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A17"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17105,26 +17119,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698D112-50B3-48CA-ACC3-FCE898F67103}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -17132,540 +17144,460 @@
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="33">
+        <v>39527</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>4.7</v>
+      </c>
+      <c r="D2">
+        <v>388.5</v>
+      </c>
+      <c r="E2">
+        <v>8.6</v>
+      </c>
+      <c r="F2">
+        <v>22.5</v>
+      </c>
+      <c r="G2">
+        <v>69.7</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="33">
-        <v>39527</v>
+        <v>39584</v>
       </c>
       <c r="B3">
-        <v>1294</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2425</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D3">
+        <v>415.7</v>
+      </c>
+      <c r="E3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G3">
+        <v>21.1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="33">
+        <v>39602</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D4">
+        <v>322.2</v>
+      </c>
+      <c r="E4">
+        <v>6.3</v>
+      </c>
+      <c r="F4">
+        <v>23.9</v>
+      </c>
+      <c r="G4">
+        <v>22.1</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="33">
+        <v>39609</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D5">
+        <v>280.60000000000002</v>
+      </c>
+      <c r="E5">
+        <v>4.7</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="33">
+        <v>39620</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D6">
+        <v>329</v>
+      </c>
+      <c r="E6">
+        <v>7.5</v>
+      </c>
+      <c r="F6">
+        <v>22.5</v>
+      </c>
+      <c r="G6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="33">
+        <v>39637</v>
+      </c>
+      <c r="B7">
+        <v>5.8</v>
+      </c>
+      <c r="C7">
+        <v>4.8</v>
+      </c>
+      <c r="D7">
+        <v>426.4</v>
+      </c>
+      <c r="E7">
+        <v>6.6</v>
+      </c>
+      <c r="F7">
+        <v>21.5</v>
+      </c>
+      <c r="G7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="33">
+        <v>39644</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>163</v>
-      </c>
-      <c r="F3">
-        <v>181</v>
-      </c>
-      <c r="G3">
-        <v>460</v>
-      </c>
-      <c r="H3">
-        <v>6.75</v>
-      </c>
-      <c r="I3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="33">
-        <v>39584</v>
-      </c>
-      <c r="B4">
-        <v>549</v>
-      </c>
-      <c r="C4">
-        <v>2346</v>
-      </c>
-      <c r="D4">
-        <v>55</v>
-      </c>
-      <c r="E4">
-        <v>116</v>
-      </c>
-      <c r="F4">
-        <v>452</v>
-      </c>
-      <c r="G4">
-        <v>800</v>
-      </c>
-      <c r="H4">
-        <v>5.16</v>
-      </c>
-      <c r="I4">
-        <v>1.4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="33">
-        <v>39602</v>
-      </c>
-      <c r="B5">
-        <v>544</v>
-      </c>
-      <c r="C5">
-        <v>2189</v>
-      </c>
-      <c r="D5">
-        <v>58</v>
-      </c>
-      <c r="E5">
-        <v>344</v>
-      </c>
-      <c r="F5">
-        <v>1629</v>
-      </c>
-      <c r="G5">
-        <v>2420</v>
-      </c>
-      <c r="H5">
-        <v>3.75</v>
-      </c>
-      <c r="I5">
+      <c r="C8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D8">
+        <v>559.1</v>
+      </c>
+      <c r="E8">
+        <v>5.3</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>8.4</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="33">
+        <v>39658</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>4.7</v>
       </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="33">
-        <v>39609</v>
-      </c>
-      <c r="B6">
-        <v>586</v>
-      </c>
-      <c r="C6">
-        <v>1890</v>
-      </c>
-      <c r="D6">
-        <v>68</v>
-      </c>
-      <c r="E6">
-        <v>169</v>
-      </c>
-      <c r="F6">
-        <v>1403</v>
-      </c>
-      <c r="G6">
-        <v>2351</v>
-      </c>
-      <c r="H6">
-        <v>1.25</v>
-      </c>
-      <c r="I6">
-        <v>3.2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="33">
-        <v>39620</v>
-      </c>
-      <c r="B7">
-        <v>1162</v>
-      </c>
-      <c r="C7">
-        <v>1929</v>
-      </c>
-      <c r="D7">
-        <v>53</v>
-      </c>
-      <c r="E7">
-        <v>118</v>
-      </c>
-      <c r="F7">
-        <v>1403</v>
-      </c>
-      <c r="G7">
-        <v>2971</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>3.2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="33">
-        <v>39637</v>
-      </c>
-      <c r="B8">
-        <v>500</v>
-      </c>
-      <c r="C8">
-        <v>71</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
+      <c r="D9">
+        <v>377.1</v>
+      </c>
+      <c r="E9">
+        <v>4.8</v>
+      </c>
+      <c r="F9">
+        <v>22.9</v>
+      </c>
+      <c r="G9">
+        <v>36.1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>18</v>
       </c>
-      <c r="F8">
-        <v>1062</v>
-      </c>
-      <c r="G8">
-        <v>1346</v>
-      </c>
-      <c r="H8">
-        <v>2.5</v>
-      </c>
-      <c r="I8">
-        <v>2.1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="33">
-        <v>39644</v>
-      </c>
-      <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="C9">
-        <v>214</v>
-      </c>
-      <c r="D9">
-        <v>200</v>
-      </c>
-      <c r="E9">
-        <v>60</v>
-      </c>
-      <c r="F9">
-        <v>531</v>
-      </c>
-      <c r="G9">
-        <v>1346</v>
-      </c>
-      <c r="H9">
-        <v>2.5</v>
-      </c>
-      <c r="I9">
-        <v>1.3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="33">
-        <v>39658</v>
+        <v>39668</v>
       </c>
       <c r="B10">
-        <v>498</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>71</v>
+        <v>4.3</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>362.1</v>
       </c>
       <c r="E10">
-        <v>39</v>
+        <v>5.6</v>
       </c>
       <c r="F10">
-        <v>133</v>
+        <v>21.4</v>
       </c>
       <c r="G10">
-        <v>242</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H10">
-        <v>5.16</v>
+        <v>0</v>
       </c>
       <c r="I10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="33">
+        <v>39672</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="33">
-        <v>39668</v>
-      </c>
-      <c r="B11">
-        <v>1200</v>
-      </c>
       <c r="C11">
-        <v>71</v>
+        <v>4.3</v>
       </c>
       <c r="D11">
-        <v>500</v>
+        <v>386.6</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F11">
-        <v>573</v>
+        <v>22.8</v>
       </c>
       <c r="G11">
-        <v>699</v>
+        <v>6.9</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1.7</v>
-      </c>
-      <c r="J11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="33">
-        <v>39672</v>
+        <v>39679</v>
       </c>
       <c r="B12">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>4.3</v>
       </c>
       <c r="D12">
-        <v>500</v>
+        <v>363.4</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="F12">
-        <v>789</v>
+        <v>22.8</v>
       </c>
       <c r="G12">
-        <v>838</v>
+        <v>6.9</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1.8</v>
-      </c>
-      <c r="J12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="33">
-        <v>39679</v>
+        <v>39701</v>
       </c>
       <c r="B13">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>279</v>
+        <v>4.5</v>
       </c>
       <c r="D13">
-        <v>300</v>
+        <v>383.8</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>6.5</v>
       </c>
       <c r="F13">
-        <v>658</v>
+        <v>22.9</v>
       </c>
       <c r="G13">
-        <v>918</v>
+        <v>7.9</v>
       </c>
       <c r="H13">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4</v>
-      </c>
-      <c r="J13">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="33">
-        <v>39701</v>
+        <v>39711</v>
       </c>
       <c r="B14">
-        <v>581</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>138</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D14">
-        <v>184</v>
+        <v>396</v>
       </c>
       <c r="E14">
-        <v>57</v>
+        <v>6.5</v>
       </c>
       <c r="F14">
-        <v>546</v>
+        <v>23.1</v>
       </c>
       <c r="G14">
-        <v>561</v>
+        <v>26</v>
       </c>
       <c r="H14">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5</v>
-      </c>
-      <c r="J14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="33">
-        <v>39711</v>
+        <v>39729</v>
       </c>
       <c r="B15">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>279</v>
+        <v>4.2</v>
       </c>
       <c r="D15">
-        <v>213</v>
+        <v>433.3</v>
       </c>
       <c r="E15">
-        <v>69</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F15">
-        <v>789</v>
+        <v>21.1</v>
       </c>
       <c r="G15">
-        <v>918</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H15">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4</v>
-      </c>
-      <c r="J15">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="33">
-        <v>39729</v>
+        <v>39744</v>
       </c>
       <c r="B16">
-        <v>570</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>346</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D16">
-        <v>205</v>
+        <v>489.8</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F16">
-        <v>307</v>
+        <v>21.6</v>
       </c>
       <c r="G16">
-        <v>867</v>
+        <v>51.9</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4</v>
-      </c>
-      <c r="J16">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="33">
-        <v>39744</v>
-      </c>
-      <c r="B17">
-        <v>965</v>
-      </c>
-      <c r="C17">
-        <v>527</v>
-      </c>
-      <c r="D17">
-        <v>62</v>
-      </c>
-      <c r="E17">
-        <v>41</v>
-      </c>
-      <c r="F17">
-        <v>658</v>
-      </c>
-      <c r="G17">
-        <v>1020</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0.6</v>
-      </c>
-      <c r="J17">
-        <v>0.4</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -17677,8 +17609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59616C72-6070-4565-B34B-C9DCBFACEEA4}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Y1" sqref="A1:Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17702,42 +17634,30 @@
     <col min="17" max="17" width="11.7109375" customWidth="1"/>
     <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" customWidth="1"/>
-    <col min="26" max="26" width="9" customWidth="1"/>
-    <col min="27" max="27" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -17745,58 +17665,76 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="O1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="P1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="R1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="S1" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="T1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -17804,22 +17742,22 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
         <v>40</v>
@@ -17831,13 +17769,13 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
         <v>40</v>
@@ -17856,6 +17794,24 @@
       </c>
       <c r="S2" t="s">
         <v>40</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -17914,14 +17870,26 @@
         <v>9.9</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="T3">
+        <v>73.8</v>
+      </c>
+      <c r="U3">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="V3">
+        <v>22</v>
+      </c>
+      <c r="W3">
+        <v>56</v>
+      </c>
+      <c r="X3">
+        <v>26.8</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="33">
@@ -17979,14 +17947,26 @@
         <v>24.1</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="T4">
+        <v>272</v>
+      </c>
+      <c r="U4">
+        <v>42.6</v>
+      </c>
+      <c r="V4">
+        <v>22.5</v>
+      </c>
+      <c r="W4">
+        <v>171</v>
+      </c>
+      <c r="X4">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="Y4">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="33">
@@ -18046,12 +18026,24 @@
       <c r="S5" s="10">
         <v>100</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
+      <c r="T5">
+        <v>168</v>
+      </c>
+      <c r="U5">
+        <v>98.6</v>
+      </c>
+      <c r="V5">
+        <v>64</v>
+      </c>
+      <c r="W5">
+        <v>108</v>
+      </c>
+      <c r="X5">
+        <v>56.7</v>
+      </c>
+      <c r="Y5">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="33">
@@ -18109,14 +18101,26 @@
         <v>7.4</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="T6">
+        <v>134</v>
+      </c>
+      <c r="U6">
+        <v>27.5</v>
+      </c>
+      <c r="V6">
+        <v>14</v>
+      </c>
+      <c r="W6">
+        <v>119</v>
+      </c>
+      <c r="X6">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Y6">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="33">
@@ -18174,14 +18178,26 @@
         <v>14.9</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="T7">
+        <v>79.5</v>
+      </c>
+      <c r="U7">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="V7">
+        <v>18.5</v>
+      </c>
+      <c r="W7">
+        <v>54</v>
+      </c>
+      <c r="X7">
+        <v>43.4</v>
+      </c>
+      <c r="Y7">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="33">
@@ -18239,14 +18255,26 @@
         <v>1</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="T8">
+        <v>64</v>
+      </c>
+      <c r="U8">
+        <v>7.7</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>62</v>
+      </c>
+      <c r="X8">
+        <v>10.6</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="33">
@@ -18304,14 +18332,26 @@
         <v>0.1</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="T9">
+        <v>62</v>
+      </c>
+      <c r="U9">
+        <v>6.5</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>52</v>
+      </c>
+      <c r="X9">
+        <v>9.5</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="33">
@@ -18369,14 +18409,26 @@
         <v>35.6</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="T10">
+        <v>116.5</v>
+      </c>
+      <c r="U10">
+        <v>49.3</v>
+      </c>
+      <c r="V10">
+        <v>19</v>
+      </c>
+      <c r="W10">
+        <v>60</v>
+      </c>
+      <c r="X10">
+        <v>30.9</v>
+      </c>
+      <c r="Y10">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="33">
@@ -18434,14 +18486,26 @@
         <v>11.1</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="T11">
+        <v>78.5</v>
+      </c>
+      <c r="U11">
+        <v>47</v>
+      </c>
+      <c r="V11">
+        <v>40.5</v>
+      </c>
+      <c r="W11">
+        <v>54.7</v>
+      </c>
+      <c r="X11">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="Y11">
+        <v>34.4</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="33">
@@ -18499,14 +18563,26 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="T12">
+        <v>211</v>
+      </c>
+      <c r="U12">
+        <v>17.8</v>
+      </c>
+      <c r="V12">
+        <v>11.5</v>
+      </c>
+      <c r="W12">
+        <v>85</v>
+      </c>
+      <c r="X12">
+        <v>21.1</v>
+      </c>
+      <c r="Y12">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="33">
@@ -18564,14 +18640,26 @@
         <v>3.5</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="T13">
+        <v>54.3</v>
+      </c>
+      <c r="U13">
+        <v>21.7</v>
+      </c>
+      <c r="V13">
+        <v>15</v>
+      </c>
+      <c r="W13">
+        <v>49</v>
+      </c>
+      <c r="X13">
+        <v>38.9</v>
+      </c>
+      <c r="Y13">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="33">
@@ -18629,14 +18717,26 @@
         <v>16.8</v>
       </c>
       <c r="S14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14">
+        <v>135.5</v>
+      </c>
+      <c r="U14">
+        <v>34.9</v>
+      </c>
+      <c r="V14">
+        <v>21</v>
+      </c>
+      <c r="W14">
         <v>66</v>
       </c>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
+      <c r="X14">
+        <v>26.4</v>
+      </c>
+      <c r="Y14">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="33">
@@ -18694,14 +18794,26 @@
         <v>37.9</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="T15">
+        <v>97.5</v>
+      </c>
+      <c r="U15">
+        <v>53.5</v>
+      </c>
+      <c r="V15">
+        <v>35.5</v>
+      </c>
+      <c r="W15">
+        <v>76</v>
+      </c>
+      <c r="X15">
+        <v>48.3</v>
+      </c>
+      <c r="Y15">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="33">
@@ -18759,14 +18871,26 @@
         <v>39.9</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="T16">
+        <v>167</v>
+      </c>
+      <c r="U16">
+        <v>52.8</v>
+      </c>
+      <c r="V16">
+        <v>26</v>
+      </c>
+      <c r="W16">
+        <v>85</v>
+      </c>
+      <c r="X16">
+        <v>35.5</v>
+      </c>
+      <c r="Y16">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="33">
@@ -18826,12 +18950,24 @@
       <c r="S17" s="10">
         <v>100</v>
       </c>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
+      <c r="T17">
+        <v>260.5</v>
+      </c>
+      <c r="U17">
+        <v>105.4</v>
+      </c>
+      <c r="V17">
+        <v>56</v>
+      </c>
+      <c r="W17">
+        <v>59</v>
+      </c>
+      <c r="X17">
+        <v>39.6</v>
+      </c>
+      <c r="Y17">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18872,49 +19008,49 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="O1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="P1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -19762,76 +19898,76 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="O1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="P1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="R1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="S1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="T1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="U1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="V1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="W1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="X1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="Y1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -19839,22 +19975,22 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
         <v>40</v>
@@ -19866,22 +20002,22 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
         <v>40</v>
@@ -19902,13 +20038,13 @@
         <v>40</v>
       </c>
       <c r="W2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="X2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Y2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -19967,7 +20103,7 @@
         <v>70</v>
       </c>
       <c r="S3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="T3">
         <v>169.5</v>
@@ -20044,7 +20180,7 @@
         <v>38.700000000000003</v>
       </c>
       <c r="S4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="T4">
         <v>597</v>
@@ -20198,7 +20334,7 @@
         <v>11</v>
       </c>
       <c r="S6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="T6">
         <v>216.5</v>
@@ -20275,7 +20411,7 @@
         <v>52.7</v>
       </c>
       <c r="S7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="T7">
         <v>169.5</v>
@@ -20349,7 +20485,7 @@
         <v>7.9</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="T8">
         <v>597</v>
@@ -20503,7 +20639,7 @@
         <v>53.4</v>
       </c>
       <c r="S10" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="T10">
         <v>216.5</v>
@@ -20657,7 +20793,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="S12" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="T12">
         <v>189</v>
@@ -20734,7 +20870,7 @@
         <v>92.1</v>
       </c>
       <c r="S13" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="T13">
         <v>259.5</v>
@@ -20811,7 +20947,7 @@
         <v>79.099999999999994</v>
       </c>
       <c r="S14" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="T14">
         <v>311.5</v>
@@ -20965,7 +21101,7 @@
         <v>89.4</v>
       </c>
       <c r="S16" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="T16">
         <v>260.5</v>
@@ -21101,49 +21237,49 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="N1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="O1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="P1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -21952,6 +22088,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E75BF3320F344148947BD78888D16EC0" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6edf410f6b44b01ab39c7d31e1b12edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="30178ccd-5dec-4fc2-99d8-b60615dd463b" xmlns:ns3="6e1b514d-969b-4b49-a695-b5437611e29d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7de0c80ed3e67ee5b7a288d01de23856" ns2:_="" ns3:_="">
     <xsd:import namespace="30178ccd-5dec-4fc2-99d8-b60615dd463b"/>
@@ -22152,15 +22297,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -22173,11 +22309,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E8147A1-F05F-4389-8271-2FFC9E1316C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE5C539B-CBF2-4F2B-B4FA-E7C3C3659CE7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE5C539B-CBF2-4F2B-B4FA-E7C3C3659CE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E8147A1-F05F-4389-8271-2FFC9E1316C3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
